--- a/biology/Zoologie/Ancône_(race_de_poules)/Ancône_(race_de_poules).xlsx
+++ b/biology/Zoologie/Ancône_(race_de_poules)/Ancône_(race_de_poules).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Anc%C3%B4ne_(race_de_poules)</t>
+          <t>Ancône_(race_de_poules)</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La poule d'Ancône est une race de poule domestique, originaire du centre de l'Italie. Il s'agit d'une race méditerranéenne, donc légère, élégante et très bonne pondeuse d'œufs blancs
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Anc%C3%B4ne_(race_de_poules)</t>
+          <t>Ancône_(race_de_poules)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,14 +524,86 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>C'est une volaille svelte de type européen, très bonne pondeuse. Elle ressemble fortement à sa cousine la leghorn, avec des tarses jaunes marbrés de noir ou verdâtres, seul son plumage noir, ou parfois bleu, caillouté de blanc, est absent chez celle-la. 
-Origine
-Ces poules sont originaires du centre de l'Italie et prennent leur nom du port d'Ancône, d'où elles furent exportées vers le Royaume-Uni au milieu du XIXe siècle. Elle figure au British Poultry Standard.
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est une volaille svelte de type européen, très bonne pondeuse. Elle ressemble fortement à sa cousine la leghorn, avec des tarses jaunes marbrés de noir ou verdâtres, seul son plumage noir, ou parfois bleu, caillouté de blanc, est absent chez celle-la. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Ancône_(race_de_poules)</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anc%C3%B4ne_(race_de_poules)</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Origine</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ces poules sont originaires du centre de l'Italie et prennent leur nom du port d'Ancône, d'où elles furent exportées vers le Royaume-Uni au milieu du XIXe siècle. Elle figure au British Poultry Standard.
 La forme naine a été fixée au Royaume-Uni.
-Standard
-Crête : simple
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Ancône_(race_de_poules)</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Anc%C3%B4ne_(race_de_poules)</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Standard</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Crête : simple
 Oreillons : blancs
 Couleur des yeux : rouge-orangé
 Couleur de la peau : blanche
